--- a/BackTest/2020-01-16 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-16 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,11 +517,17 @@
         <v>-32649.17527486999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1974</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +556,17 @@
         <v>-30392.14247486999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1964</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +595,17 @@
         <v>-23915.60200000999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1965</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,7 +634,7 @@
         <v>-27546.59860000999</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1967</v>
@@ -624,7 +642,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -655,7 +673,7 @@
         <v>-26546.59860000999</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1965</v>
@@ -694,7 +712,7 @@
         <v>-26507.70960000999</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1967</v>
@@ -733,7 +751,7 @@
         <v>-26902.12260000999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>1973</v>
@@ -772,7 +790,7 @@
         <v>-26575.36480000999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1967</v>
@@ -811,9 +829,11 @@
         <v>-27122.19830000999</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1983</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
@@ -848,7 +868,7 @@
         <v>-25424.51470000999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1975</v>
@@ -887,9 +907,11 @@
         <v>-25591.61470000999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1982</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -924,9 +946,11 @@
         <v>-26814.06939304999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1972</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -961,9 +985,11 @@
         <v>-26914.06939304999</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1971</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
@@ -998,7 +1024,7 @@
         <v>-24550.89149304999</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1970</v>
@@ -1037,7 +1063,7 @@
         <v>-25827.56465950999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1972</v>
@@ -1076,7 +1102,7 @@
         <v>-25973.20265950999</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1970</v>
@@ -1115,7 +1141,7 @@
         <v>-25973.20265950999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>1965</v>
@@ -1154,7 +1180,7 @@
         <v>-25244.72255950999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1965</v>
@@ -1193,7 +1219,7 @@
         <v>-31836.21295950999</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>1968</v>
@@ -1232,7 +1258,7 @@
         <v>-32536.66885950999</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1964</v>
@@ -1271,7 +1297,7 @@
         <v>-29690.88855950999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>1960</v>
@@ -1310,7 +1336,7 @@
         <v>-29427.64295950999</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>1962</v>
@@ -1349,7 +1375,7 @@
         <v>-27299.81055951</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1963</v>
@@ -1388,7 +1414,7 @@
         <v>-27525.95425951</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1969</v>
@@ -1427,7 +1453,7 @@
         <v>-27324.26645951</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>1964</v>
@@ -1466,7 +1492,7 @@
         <v>-27324.26645951</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1965</v>
@@ -1505,7 +1531,7 @@
         <v>-43126.84625951</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1965</v>
@@ -1544,7 +1570,7 @@
         <v>-45381.09915951</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1961</v>
@@ -1583,9 +1609,11 @@
         <v>-46032.65335951</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1960</v>
+      </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
@@ -1620,9 +1648,11 @@
         <v>-45885.65335951</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1959</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -1657,9 +1687,11 @@
         <v>-45785.65335951</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1960</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1694,7 +1726,7 @@
         <v>-47358.21665951</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>1961</v>
@@ -1733,7 +1765,7 @@
         <v>-45226.36545951</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1959</v>
@@ -1772,7 +1804,7 @@
         <v>-44961.23395951</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>1961</v>
@@ -1811,7 +1843,7 @@
         <v>-44961.23395951</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>1973</v>
@@ -1850,7 +1882,7 @@
         <v>-44568.48925951</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>1973</v>
@@ -1889,7 +1921,7 @@
         <v>-43627.86595951</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>1979</v>
@@ -1928,7 +1960,7 @@
         <v>-40731.09895951</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>1980</v>
@@ -1967,7 +1999,7 @@
         <v>-41020.50305951</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>1990</v>
@@ -2006,7 +2038,7 @@
         <v>-44811.02075950999</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>1986</v>
@@ -2045,9 +2077,11 @@
         <v>-44811.02075950999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1985</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2082,9 +2116,11 @@
         <v>-44684.26951016999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1985</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2119,9 +2155,11 @@
         <v>-44765.77161016999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1986</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2156,9 +2194,11 @@
         <v>-43887.61481016999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1982</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2304,9 +2344,11 @@
         <v>-47557.87291016999</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1986</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2341,9 +2383,11 @@
         <v>-47276.68771016999</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1985</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2378,9 +2422,11 @@
         <v>-49868.85261017</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1988</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2415,9 +2461,11 @@
         <v>-36938.04781017</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1982</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -16808,7 +16856,7 @@
         <v>189413.38994677</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16845,7 +16893,7 @@
         <v>198224.45314677</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16882,7 +16930,7 @@
         <v>207355.9750027001</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16919,7 +16967,7 @@
         <v>205923.3005027001</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16956,7 +17004,7 @@
         <v>198081.3725027001</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16993,7 +17041,7 @@
         <v>212510.1426027001</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17030,18 +17078,16 @@
         <v>207752.9359163601</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="inlineStr"/>
     </row>
     <row r="450">
@@ -17067,15 +17113,11 @@
         <v>201230.79591636</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17104,15 +17146,11 @@
         <v>193470.1239163601</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17141,15 +17179,11 @@
         <v>201946.3028163601</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17178,15 +17212,11 @@
         <v>203713.9248448301</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17215,15 +17245,11 @@
         <v>199026.7570820301</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17252,15 +17278,11 @@
         <v>191502.76538203</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17289,15 +17311,11 @@
         <v>192053.26418203</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17326,15 +17344,11 @@
         <v>188991.9168820301</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17363,15 +17377,11 @@
         <v>180081.3110820301</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17400,15 +17410,11 @@
         <v>172992.6652820301</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17437,15 +17443,11 @@
         <v>178542.5277820301</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17474,15 +17476,11 @@
         <v>176459.8068820301</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17511,15 +17509,11 @@
         <v>170682.5769820301</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17548,15 +17542,11 @@
         <v>160086.3517820301</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17585,15 +17575,11 @@
         <v>145641.8682820301</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17622,15 +17608,11 @@
         <v>112111.1102820301</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17659,15 +17641,11 @@
         <v>119689.7182820301</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17696,15 +17674,11 @@
         <v>115165.3723820301</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17733,15 +17707,11 @@
         <v>117352.6236710901</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17770,15 +17740,11 @@
         <v>117352.6236710901</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17807,15 +17773,11 @@
         <v>119078.3355710901</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17844,15 +17806,11 @@
         <v>121430.8008710901</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17881,15 +17839,11 @@
         <v>120217.8163710901</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17918,15 +17872,11 @@
         <v>122025.9085710901</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17955,15 +17905,11 @@
         <v>127812.1458710901</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17992,15 +17938,11 @@
         <v>120657.2554710901</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18029,15 +17971,11 @@
         <v>115034.8004710901</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18066,15 +18004,11 @@
         <v>115034.8004710901</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18103,15 +18037,11 @@
         <v>114143.8129710901</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18140,15 +18070,11 @@
         <v>114500.0371710901</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18181,11 +18107,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18218,11 +18140,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18255,11 +18173,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18292,11 +18206,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18325,15 +18235,11 @@
         <v>134643.3179234201</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18362,15 +18268,11 @@
         <v>139218.58672342</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18399,15 +18301,11 @@
         <v>141177.5649234201</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18440,11 +18338,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18477,11 +18371,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18514,11 +18404,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18551,11 +18437,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18588,11 +18470,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18625,11 +18503,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18662,11 +18536,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18699,11 +18569,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18736,11 +18602,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18773,11 +18635,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18810,11 +18668,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18847,11 +18701,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18884,11 +18734,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18921,11 +18767,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18958,11 +18800,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18995,11 +18833,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19032,11 +18866,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19069,11 +18899,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19106,11 +18932,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19143,11 +18965,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19180,11 +18998,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19217,11 +19031,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19254,11 +19064,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19291,11 +19097,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19328,11 +19130,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19365,11 +19163,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19402,11 +19196,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19439,11 +19229,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19476,11 +19262,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19513,11 +19295,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19550,11 +19328,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19587,11 +19361,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19624,11 +19394,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19661,11 +19427,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19698,11 +19460,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19735,11 +19493,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19772,11 +19526,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19809,11 +19559,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19846,11 +19592,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19883,11 +19625,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19916,15 +19654,11 @@
         <v>178264.6281125902</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19953,15 +19687,11 @@
         <v>176487.1757125902</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19990,15 +19720,11 @@
         <v>176989.4924779602</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20027,15 +19753,11 @@
         <v>180319.5168779602</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20064,15 +19786,11 @@
         <v>180226.9066779602</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20101,15 +19819,11 @@
         <v>178271.8957779602</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20138,15 +19852,11 @@
         <v>178367.0551779602</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20175,15 +19885,11 @@
         <v>178264.6551779602</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20212,15 +19918,11 @@
         <v>178764.7803133002</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20249,15 +19951,11 @@
         <v>176393.2968133002</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20286,15 +19984,11 @@
         <v>175229.5402133002</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20323,15 +20017,11 @@
         <v>175475.8789133002</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20360,15 +20050,11 @@
         <v>175475.8789133002</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20397,15 +20083,11 @@
         <v>164220.0076133002</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20434,15 +20116,11 @@
         <v>164220.0076133002</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20471,15 +20149,11 @@
         <v>163433.5102133002</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20508,15 +20182,11 @@
         <v>163498.5102133002</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20545,15 +20215,11 @@
         <v>163498.5102133002</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20582,15 +20248,11 @@
         <v>164281.0925133002</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20619,15 +20281,11 @@
         <v>164479.4246133002</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20656,15 +20314,11 @@
         <v>165173.8963779602</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20693,15 +20347,11 @@
         <v>165173.8963779602</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20730,15 +20380,11 @@
         <v>164762.5357779602</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20767,15 +20413,11 @@
         <v>164802.5357779602</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20804,15 +20446,11 @@
         <v>164802.5357779602</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20841,16 +20479,14 @@
         <v>166568.6425779602</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
+      <c r="L552" t="n">
+        <v>1</v>
+      </c>
       <c r="M552" t="inlineStr"/>
     </row>
     <row r="553">
@@ -20876,7 +20512,7 @@
         <v>171777.5571779602</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20909,7 +20545,7 @@
         <v>171778.3838779602</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20942,7 +20578,7 @@
         <v>171778.3838779602</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20975,7 +20611,7 @@
         <v>171842.0500779602</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21008,7 +20644,7 @@
         <v>171453.1521779602</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21041,7 +20677,7 @@
         <v>173013.9246779602</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21074,7 +20710,7 @@
         <v>172033.0157779602</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21107,7 +20743,7 @@
         <v>173249.1353779602</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21140,7 +20776,7 @@
         <v>172132.6901779602</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21173,7 +20809,7 @@
         <v>170629.5773037402</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21206,7 +20842,7 @@
         <v>188490.5897037402</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21239,7 +20875,7 @@
         <v>188840.3074037402</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21272,7 +20908,7 @@
         <v>190834.5090037402</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21305,7 +20941,7 @@
         <v>191428.7647037402</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21371,7 +21007,7 @@
         <v>208396.0602646502</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21404,7 +21040,7 @@
         <v>213517.0554646502</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21437,7 +21073,7 @@
         <v>217401.2919600102</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21470,7 +21106,7 @@
         <v>211062.2250600102</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21503,7 +21139,7 @@
         <v>206375.6346600103</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21536,7 +21172,7 @@
         <v>206533.4158600103</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21569,7 +21205,7 @@
         <v>205927.7702600103</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21602,7 +21238,7 @@
         <v>206096.1046600103</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21635,7 +21271,7 @@
         <v>206096.1046600103</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21668,7 +21304,7 @@
         <v>204535.4135600103</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21701,7 +21337,7 @@
         <v>201560.3865600103</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21734,7 +21370,7 @@
         <v>198605.9414600102</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21767,7 +21403,7 @@
         <v>197592.8379600102</v>
       </c>
       <c r="H580" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21800,7 +21436,7 @@
         <v>197377.6693600102</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21833,7 +21469,7 @@
         <v>197380.5693600102</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21866,7 +21502,7 @@
         <v>194968.4831600102</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21899,7 +21535,7 @@
         <v>194968.4831600102</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21932,7 +21568,7 @@
         <v>195382.9588600103</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21965,7 +21601,7 @@
         <v>196640.3819600103</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21998,7 +21634,7 @@
         <v>205657.4283600103</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22031,7 +21667,7 @@
         <v>205442.9284600103</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22064,7 +21700,7 @@
         <v>205719.2800926403</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22097,7 +21733,7 @@
         <v>204725.3220926402</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22130,7 +21766,7 @@
         <v>204725.3220926402</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22163,7 +21799,7 @@
         <v>199855.9598926402</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22196,7 +21832,7 @@
         <v>196412.1122926402</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22229,7 +21865,7 @@
         <v>194005.3477926402</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22262,7 +21898,7 @@
         <v>187274.0374926402</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22295,7 +21931,7 @@
         <v>181438.9696926402</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22328,7 +21964,7 @@
         <v>171077.6203926402</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22361,7 +21997,7 @@
         <v>168352.6985926402</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22394,7 +22030,7 @@
         <v>171110.6996926402</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22427,7 +22063,7 @@
         <v>169481.7416926402</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22460,7 +22096,7 @@
         <v>163423.5980926402</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22493,7 +22129,7 @@
         <v>158528.5209926402</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22526,7 +22162,7 @@
         <v>160222.4370926402</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22559,7 +22195,7 @@
         <v>158709.0082926402</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22592,7 +22228,7 @@
         <v>153698.3173926402</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22625,7 +22261,7 @@
         <v>151184.8600926402</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22658,7 +22294,7 @@
         <v>148172.3317926402</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22691,7 +22327,7 @@
         <v>148214.2371926402</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22724,7 +22360,7 @@
         <v>148327.2953926402</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22757,7 +22393,7 @@
         <v>146261.0298926402</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22790,7 +22426,7 @@
         <v>148479.4358926402</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22823,7 +22459,7 @@
         <v>148117.7186926402</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22856,7 +22492,7 @@
         <v>148201.6116926402</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22889,7 +22525,7 @@
         <v>148348.6872926402</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22922,7 +22558,7 @@
         <v>151423.9129926402</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22955,7 +22591,7 @@
         <v>152526.0612926402</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22988,7 +22624,7 @@
         <v>153634.4848926402</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23021,7 +22657,7 @@
         <v>153318.5699926402</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -23054,7 +22690,7 @@
         <v>151789.5412926402</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -23087,7 +22723,7 @@
         <v>151789.9079926402</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -23120,7 +22756,7 @@
         <v>151913.3883926402</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -23153,7 +22789,7 @@
         <v>151913.3883926402</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -23186,7 +22822,7 @@
         <v>151913.3883926402</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -23219,7 +22855,7 @@
         <v>151859.5677926402</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -23252,7 +22888,7 @@
         <v>151706.4775926402</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23285,7 +22921,7 @@
         <v>152670.7917926402</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -23318,7 +22954,7 @@
         <v>151875.2121926402</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -23351,7 +22987,7 @@
         <v>151880.9650926402</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23384,7 +23020,7 @@
         <v>150624.3364926402</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23417,7 +23053,7 @@
         <v>142746.4547926402</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23450,7 +23086,7 @@
         <v>137556.3747926402</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23483,7 +23119,7 @@
         <v>137968.5332195002</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23516,7 +23152,7 @@
         <v>137968.5332195002</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23549,7 +23185,7 @@
         <v>136882.7272195002</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23582,7 +23218,7 @@
         <v>139147.1495195002</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23615,7 +23251,7 @@
         <v>138485.6731195002</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23648,7 +23284,7 @@
         <v>135401.0809195002</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23681,7 +23317,7 @@
         <v>134005.0928195002</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23747,7 +23383,7 @@
         <v>134488.9804195002</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23780,7 +23416,7 @@
         <v>133563.6366195002</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -28004,7 +27640,7 @@
         <v>127625.0460521001</v>
       </c>
       <c r="H769" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -28037,7 +27673,7 @@
         <v>127531.6807521001</v>
       </c>
       <c r="H770" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -28070,7 +27706,7 @@
         <v>127531.6807521001</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -28103,7 +27739,7 @@
         <v>127823.1660231801</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -28235,7 +27871,7 @@
         <v>128450.3419521001</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -28367,7 +28003,7 @@
         <v>129206.6219521001</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -28400,7 +28036,7 @@
         <v>131050.8573521001</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -28433,7 +28069,7 @@
         <v>129879.8881521001</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -28466,7 +28102,7 @@
         <v>130060.8881521001</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -28499,7 +28135,7 @@
         <v>136197.7865521001</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -32690,7 +32326,7 @@
         <v>166472.1121454001</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -33284,7 +32920,7 @@
         <v>173574.2781454</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -33317,7 +32953,7 @@
         <v>173567.6781454</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -33350,7 +32986,7 @@
         <v>171992.8184454</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33647,7 +33283,7 @@
         <v>174737.23174746</v>
       </c>
       <c r="H940" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
@@ -33680,7 +33316,7 @@
         <v>174737.23174746</v>
       </c>
       <c r="H941" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
@@ -33713,7 +33349,7 @@
         <v>175018.63174746</v>
       </c>
       <c r="H942" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
@@ -33746,7 +33382,7 @@
         <v>175356.14614746</v>
       </c>
       <c r="H943" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
@@ -33812,7 +33448,7 @@
         <v>176010.05204746</v>
       </c>
       <c r="H945" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
@@ -33845,7 +33481,7 @@
         <v>175913.91334746</v>
       </c>
       <c r="H946" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33878,7 +33514,7 @@
         <v>176034.91334746</v>
       </c>
       <c r="H947" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
@@ -33911,7 +33547,7 @@
         <v>176601.75934746</v>
       </c>
       <c r="H948" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33944,7 +33580,7 @@
         <v>176601.75934746</v>
       </c>
       <c r="H949" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33977,7 +33613,7 @@
         <v>176636.75934746</v>
       </c>
       <c r="H950" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -34010,7 +33646,7 @@
         <v>177108.19804746</v>
       </c>
       <c r="H951" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -34043,7 +33679,7 @@
         <v>176690.58014746</v>
       </c>
       <c r="H952" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -34076,7 +33712,7 @@
         <v>176531.85334746</v>
       </c>
       <c r="H953" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -34109,7 +33745,7 @@
         <v>173166.33884746</v>
       </c>
       <c r="H954" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -34142,7 +33778,7 @@
         <v>171074.2179124099</v>
       </c>
       <c r="H955" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -34175,7 +33811,7 @@
         <v>170362.1853124099</v>
       </c>
       <c r="H956" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -34208,7 +33844,7 @@
         <v>170205.07531241</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -34241,7 +33877,7 @@
         <v>156611.6597124099</v>
       </c>
       <c r="H958" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -34274,7 +33910,7 @@
         <v>153625.73661668</v>
       </c>
       <c r="H959" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -34307,7 +33943,7 @@
         <v>153926.73661668</v>
       </c>
       <c r="H960" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -34340,7 +33976,7 @@
         <v>153921.73661668</v>
       </c>
       <c r="H961" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34373,7 +34009,7 @@
         <v>154223.37881668</v>
       </c>
       <c r="H962" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34406,7 +34042,7 @@
         <v>153856.96161668</v>
       </c>
       <c r="H963" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34439,7 +34075,7 @@
         <v>152946.46121668</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34472,7 +34108,7 @@
         <v>155036.62575222</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34505,7 +34141,7 @@
         <v>154310.82575222</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34538,7 +34174,7 @@
         <v>151482.98861541</v>
       </c>
       <c r="H967" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34571,7 +34207,7 @@
         <v>150796.25941541</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34604,7 +34240,7 @@
         <v>153190.69301541</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34637,7 +34273,7 @@
         <v>153841.34561541</v>
       </c>
       <c r="H970" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34670,7 +34306,7 @@
         <v>154811.50821541</v>
       </c>
       <c r="H971" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34703,7 +34339,7 @@
         <v>156744.06601541</v>
       </c>
       <c r="H972" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34736,7 +34372,7 @@
         <v>156744.06601541</v>
       </c>
       <c r="H973" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34769,7 +34405,7 @@
         <v>157851.45611541</v>
       </c>
       <c r="H974" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34802,7 +34438,7 @@
         <v>157892.56201541</v>
       </c>
       <c r="H975" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34835,7 +34471,7 @@
         <v>157907.76651541</v>
       </c>
       <c r="H976" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34868,7 +34504,7 @@
         <v>158714.96201541</v>
       </c>
       <c r="H977" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34901,7 +34537,7 @@
         <v>152093.98661541</v>
       </c>
       <c r="H978" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34934,7 +34570,7 @@
         <v>153294.79111541</v>
       </c>
       <c r="H979" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34967,7 +34603,7 @@
         <v>153860.38061541</v>
       </c>
       <c r="H980" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -35000,7 +34636,7 @@
         <v>153860.38061541</v>
       </c>
       <c r="H981" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -35033,7 +34669,7 @@
         <v>153360.38061541</v>
       </c>
       <c r="H982" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -35066,7 +34702,7 @@
         <v>154089.03301541</v>
       </c>
       <c r="H983" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -35099,7 +34735,7 @@
         <v>154089.03301541</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -35132,7 +34768,7 @@
         <v>154155.67531541</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -35165,7 +34801,7 @@
         <v>154362.67531541</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -35198,7 +34834,7 @@
         <v>150477.10631541</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -35231,7 +34867,7 @@
         <v>149915.11541541</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -35264,7 +34900,7 @@
         <v>149915.11541541</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -35297,7 +34933,7 @@
         <v>150162.64911541</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -35330,7 +34966,7 @@
         <v>150315.79771541</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -35363,7 +34999,7 @@
         <v>150340.79771541</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35396,7 +35032,7 @@
         <v>150340.79771541</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35429,7 +35065,7 @@
         <v>149248.41211541</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35462,7 +35098,7 @@
         <v>149194.38209478</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35495,7 +35131,7 @@
         <v>148974.52429478</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35528,7 +35164,7 @@
         <v>144715.89519478</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35561,7 +35197,7 @@
         <v>144943.49299478</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35594,7 +35230,7 @@
         <v>144790.34439478</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35627,7 +35263,7 @@
         <v>144002.19559478</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35660,7 +35296,7 @@
         <v>147719.45129478</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35693,7 +35329,7 @@
         <v>146864.15999478</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35726,7 +35362,7 @@
         <v>147038.85529478</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -36023,7 +35659,7 @@
         <v>149107.71579478</v>
       </c>
       <c r="H1012" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -36089,7 +35725,7 @@
         <v>149123.79709478</v>
       </c>
       <c r="H1014" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -36155,7 +35791,7 @@
         <v>147038.32409478</v>
       </c>
       <c r="H1016" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -36188,7 +35824,7 @@
         <v>153323.86529478</v>
       </c>
       <c r="H1017" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -36221,7 +35857,7 @@
         <v>153623.86529478</v>
       </c>
       <c r="H1018" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -36254,7 +35890,7 @@
         <v>153456.49799478</v>
       </c>
       <c r="H1019" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -36353,7 +35989,7 @@
         <v>155938.44004507</v>
       </c>
       <c r="H1022" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36386,7 +36022,7 @@
         <v>156307.65573078</v>
       </c>
       <c r="H1023" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -38696,7 +38332,7 @@
         <v>152742.3924917</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38762,7 +38398,7 @@
         <v>155792.7962917</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38795,7 +38431,7 @@
         <v>155791.7962917</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38828,7 +38464,7 @@
         <v>156711.9766917</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38861,7 +38497,7 @@
         <v>159029.2686917</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38894,7 +38530,7 @@
         <v>159029.2686917</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -39125,7 +38761,7 @@
         <v>165123.3093645899</v>
       </c>
       <c r="H1106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -39158,7 +38794,7 @@
         <v>166055.51916459</v>
       </c>
       <c r="H1107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -39191,7 +38827,7 @@
         <v>165557.4318645899</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -39224,7 +38860,7 @@
         <v>161248.17106459</v>
       </c>
       <c r="H1109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -39257,7 +38893,7 @@
         <v>161448.77756459</v>
       </c>
       <c r="H1110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -39290,7 +38926,7 @@
         <v>160364.06626459</v>
       </c>
       <c r="H1111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -39323,7 +38959,7 @@
         <v>163469.65459074</v>
       </c>
       <c r="H1112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -39356,7 +38992,7 @@
         <v>163338.33289074</v>
       </c>
       <c r="H1113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -39389,7 +39025,7 @@
         <v>163338.33289074</v>
       </c>
       <c r="H1114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -39422,7 +39058,7 @@
         <v>163338.33289074</v>
       </c>
       <c r="H1115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -39455,7 +39091,7 @@
         <v>163104.7492907399</v>
       </c>
       <c r="H1116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -39488,7 +39124,7 @@
         <v>163548.9497907399</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -39521,7 +39157,7 @@
         <v>163552.03849329</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -39554,7 +39190,7 @@
         <v>163523.30729329</v>
       </c>
       <c r="H1119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -39587,7 +39223,7 @@
         <v>160336.64059329</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -39620,7 +39256,7 @@
         <v>160336.64059329</v>
       </c>
       <c r="H1121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39653,7 +39289,7 @@
         <v>160429.38200366</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39686,7 +39322,7 @@
         <v>160059.63240366</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39719,7 +39355,7 @@
         <v>160059.63240366</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39752,7 +39388,7 @@
         <v>160059.63240366</v>
       </c>
       <c r="H1125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39785,7 +39421,7 @@
         <v>159443.60291403</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39818,7 +39454,7 @@
         <v>159427.20291403</v>
       </c>
       <c r="H1127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39851,7 +39487,7 @@
         <v>157400.49031403</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39884,7 +39520,7 @@
         <v>157400.22031403</v>
       </c>
       <c r="H1129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39917,7 +39553,7 @@
         <v>157216.83441403</v>
       </c>
       <c r="H1130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39950,7 +39586,7 @@
         <v>158628.90081403</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39983,7 +39619,7 @@
         <v>158655.50701403</v>
       </c>
       <c r="H1132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -40016,7 +39652,7 @@
         <v>158538.85271403</v>
       </c>
       <c r="H1133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -40049,7 +39685,7 @@
         <v>158538.85271403</v>
       </c>
       <c r="H1134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -40082,7 +39718,7 @@
         <v>160512.09461403</v>
       </c>
       <c r="H1135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -40115,7 +39751,7 @@
         <v>160656.36474161</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -40148,7 +39784,7 @@
         <v>160648.79634161</v>
       </c>
       <c r="H1137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -40181,7 +39817,7 @@
         <v>160762.5809231</v>
       </c>
       <c r="H1138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -40214,7 +39850,7 @@
         <v>159302.3010231</v>
       </c>
       <c r="H1139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -40247,7 +39883,7 @@
         <v>158131.9009231</v>
       </c>
       <c r="H1140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -40280,7 +39916,7 @@
         <v>158131.9009231</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -40313,7 +39949,7 @@
         <v>158770.6664231</v>
       </c>
       <c r="H1142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -40346,7 +39982,7 @@
         <v>159717.8720231</v>
       </c>
       <c r="H1143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -40379,7 +40015,7 @@
         <v>159515.8720231</v>
       </c>
       <c r="H1144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -40412,7 +40048,7 @@
         <v>161520.91603198</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40445,7 +40081,7 @@
         <v>161483.7263319801</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -40478,7 +40114,7 @@
         <v>161252.0390319801</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -40511,7 +40147,7 @@
         <v>161252.0390319801</v>
       </c>
       <c r="H1148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -40544,7 +40180,7 @@
         <v>162181.3511319801</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -40577,7 +40213,7 @@
         <v>160629.6139319801</v>
       </c>
       <c r="H1150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -40610,7 +40246,7 @@
         <v>156373.3968319801</v>
       </c>
       <c r="H1151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -40643,7 +40279,7 @@
         <v>155529.9525319801</v>
       </c>
       <c r="H1152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -40676,7 +40312,7 @@
         <v>153915.9478319801</v>
       </c>
       <c r="H1153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -40709,7 +40345,7 @@
         <v>149760.5951319801</v>
       </c>
       <c r="H1154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -40742,7 +40378,7 @@
         <v>147939.3696319801</v>
       </c>
       <c r="H1155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -40775,7 +40411,7 @@
         <v>147939.3696319801</v>
       </c>
       <c r="H1156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -40808,7 +40444,7 @@
         <v>147939.3696319801</v>
       </c>
       <c r="H1157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -40841,7 +40477,7 @@
         <v>148178.3632319801</v>
       </c>
       <c r="H1158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -40874,7 +40510,7 @@
         <v>148592.6965319801</v>
       </c>
       <c r="H1159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -40907,7 +40543,7 @@
         <v>144570.1864319801</v>
       </c>
       <c r="H1160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40940,7 +40576,7 @@
         <v>145929.3864319801</v>
       </c>
       <c r="H1161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -40951,6 +40587,6 @@
       <c r="M1161" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-16 BackTest QTUM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,11 +484,17 @@
         <v>-27279.88947487</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1978</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -525,7 +531,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -556,11 +562,9 @@
         <v>-30392.14247486999</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1964</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
@@ -1999,11 +2003,9 @@
         <v>-41020.50305951</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2038,11 +2040,9 @@
         <v>-44811.02075950999</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2077,11 +2077,9 @@
         <v>-44811.02075950999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2233,9 +2231,11 @@
         <v>-47108.61771016999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1990</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2270,9 +2270,11 @@
         <v>-46755.12561016999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1988</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2307,9 +2309,11 @@
         <v>-47091.18691016999</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1990</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2500,9 +2504,11 @@
         <v>-36464.67131017</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1996</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2574,9 +2580,11 @@
         <v>-36637.84151017</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1999</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -16116,18 +16124,16 @@
         <v>153868.01437983</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L423" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="inlineStr"/>
     </row>
     <row r="424">
@@ -16153,15 +16159,11 @@
         <v>186353.62347983</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16190,15 +16192,11 @@
         <v>176845.43122043</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16227,15 +16225,11 @@
         <v>169334.80632043</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16264,15 +16258,11 @@
         <v>178759.61749557</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16301,15 +16291,11 @@
         <v>190812.56192043</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16338,15 +16324,11 @@
         <v>207972.46202043</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16375,15 +16357,11 @@
         <v>173699.03972043</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16416,11 +16394,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16453,11 +16427,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16490,11 +16460,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16527,11 +16493,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16564,11 +16526,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16601,11 +16559,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16638,11 +16592,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16675,11 +16625,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16712,11 +16658,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16749,11 +16691,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16786,11 +16724,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16823,11 +16757,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16860,11 +16790,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16897,11 +16823,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16934,11 +16856,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16971,11 +16889,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17008,11 +16922,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17045,11 +16955,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17078,16 +16984,14 @@
         <v>207752.9359163601</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
       <c r="M449" t="inlineStr"/>
     </row>
     <row r="450">
@@ -17113,7 +17017,7 @@
         <v>201230.79591636</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17410,7 +17314,7 @@
         <v>172992.6652820301</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17443,7 +17347,7 @@
         <v>178542.5277820301</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17476,7 +17380,7 @@
         <v>176459.8068820301</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17509,7 +17413,7 @@
         <v>170682.5769820301</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17542,7 +17446,7 @@
         <v>160086.3517820301</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17575,7 +17479,7 @@
         <v>145641.8682820301</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17740,7 +17644,7 @@
         <v>117352.6236710901</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17773,7 +17677,7 @@
         <v>119078.3355710901</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17806,7 +17710,7 @@
         <v>121430.8008710901</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17839,7 +17743,7 @@
         <v>120217.8163710901</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17872,7 +17776,7 @@
         <v>122025.9085710901</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17905,7 +17809,7 @@
         <v>127812.1458710901</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17938,7 +17842,7 @@
         <v>120657.2554710901</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17971,7 +17875,7 @@
         <v>115034.8004710901</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18004,7 +17908,7 @@
         <v>115034.8004710901</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18037,7 +17941,7 @@
         <v>114143.8129710901</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18070,7 +17974,7 @@
         <v>114500.0371710901</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18235,7 +18139,7 @@
         <v>134643.3179234201</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18268,7 +18172,7 @@
         <v>139218.58672342</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18301,7 +18205,7 @@
         <v>141177.5649234201</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19291,7 +19195,7 @@
         <v>184965.6360229201</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19324,7 +19228,7 @@
         <v>184965.6360229201</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19357,7 +19261,7 @@
         <v>176678.6981229201</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19390,7 +19294,7 @@
         <v>176668.9285603401</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19423,7 +19327,7 @@
         <v>176613.5285603401</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19456,7 +19360,7 @@
         <v>176559.2448603401</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19489,7 +19393,7 @@
         <v>177420.0005603402</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19654,7 +19558,7 @@
         <v>178264.6281125902</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19687,7 +19591,7 @@
         <v>176487.1757125902</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19720,7 +19624,7 @@
         <v>176989.4924779602</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19753,7 +19657,7 @@
         <v>180319.5168779602</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19786,7 +19690,7 @@
         <v>180226.9066779602</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19819,7 +19723,7 @@
         <v>178271.8957779602</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19852,7 +19756,7 @@
         <v>178367.0551779602</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19885,7 +19789,7 @@
         <v>178264.6551779602</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19918,7 +19822,7 @@
         <v>178764.7803133002</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19951,7 +19855,7 @@
         <v>176393.2968133002</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19984,7 +19888,7 @@
         <v>175229.5402133002</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20017,7 +19921,7 @@
         <v>175475.8789133002</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20050,7 +19954,7 @@
         <v>175475.8789133002</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20083,7 +19987,7 @@
         <v>164220.0076133002</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20116,7 +20020,7 @@
         <v>164220.0076133002</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20149,7 +20053,7 @@
         <v>163433.5102133002</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20182,7 +20086,7 @@
         <v>163498.5102133002</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20215,7 +20119,7 @@
         <v>163498.5102133002</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20248,7 +20152,7 @@
         <v>164281.0925133002</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20281,7 +20185,7 @@
         <v>164479.4246133002</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20314,7 +20218,7 @@
         <v>165173.8963779602</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20347,7 +20251,7 @@
         <v>165173.8963779602</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20380,7 +20284,7 @@
         <v>164762.5357779602</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20413,7 +20317,7 @@
         <v>164802.5357779602</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20446,7 +20350,7 @@
         <v>164802.5357779602</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20479,7 +20383,7 @@
         <v>166568.6425779602</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20512,7 +20416,7 @@
         <v>171777.5571779602</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20545,7 +20449,7 @@
         <v>171778.3838779602</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20578,7 +20482,7 @@
         <v>171778.3838779602</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20611,7 +20515,7 @@
         <v>171842.0500779602</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20644,7 +20548,7 @@
         <v>171453.1521779602</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20677,7 +20581,7 @@
         <v>173013.9246779602</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20710,7 +20614,7 @@
         <v>172033.0157779602</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20743,7 +20647,7 @@
         <v>173249.1353779602</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20776,7 +20680,7 @@
         <v>172132.6901779602</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20809,7 +20713,7 @@
         <v>170629.5773037402</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20842,7 +20746,7 @@
         <v>188490.5897037402</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20875,7 +20779,7 @@
         <v>188840.3074037402</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20908,7 +20812,7 @@
         <v>190834.5090037402</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20941,7 +20845,7 @@
         <v>191428.7647037402</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21007,7 +20911,7 @@
         <v>208396.0602646502</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21040,7 +20944,7 @@
         <v>213517.0554646502</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21073,7 +20977,7 @@
         <v>217401.2919600102</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21172,7 +21076,7 @@
         <v>206533.4158600103</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21205,7 +21109,7 @@
         <v>205927.7702600103</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21238,7 +21142,7 @@
         <v>206096.1046600103</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21271,7 +21175,7 @@
         <v>206096.1046600103</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21304,7 +21208,7 @@
         <v>204535.4135600103</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21337,7 +21241,7 @@
         <v>201560.3865600103</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21370,7 +21274,7 @@
         <v>198605.9414600102</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21403,7 +21307,7 @@
         <v>197592.8379600102</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21436,7 +21340,7 @@
         <v>197377.6693600102</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21469,7 +21373,7 @@
         <v>197380.5693600102</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21502,7 +21406,7 @@
         <v>194968.4831600102</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21535,7 +21439,7 @@
         <v>194968.4831600102</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21568,7 +21472,7 @@
         <v>195382.9588600103</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21601,7 +21505,7 @@
         <v>196640.3819600103</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21634,7 +21538,7 @@
         <v>205657.4283600103</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21667,7 +21571,7 @@
         <v>205442.9284600103</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21700,7 +21604,7 @@
         <v>205719.2800926403</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21733,7 +21637,7 @@
         <v>204725.3220926402</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21766,7 +21670,7 @@
         <v>204725.3220926402</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21799,7 +21703,7 @@
         <v>199855.9598926402</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21832,7 +21736,7 @@
         <v>196412.1122926402</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21865,7 +21769,7 @@
         <v>194005.3477926402</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21898,7 +21802,7 @@
         <v>187274.0374926402</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21931,7 +21835,7 @@
         <v>181438.9696926402</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21964,7 +21868,7 @@
         <v>171077.6203926402</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21997,7 +21901,7 @@
         <v>168352.6985926402</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22030,7 +21934,7 @@
         <v>171110.6996926402</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22063,7 +21967,7 @@
         <v>169481.7416926402</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22096,7 +22000,7 @@
         <v>163423.5980926402</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22129,7 +22033,7 @@
         <v>158528.5209926402</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22162,7 +22066,7 @@
         <v>160222.4370926402</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22195,7 +22099,7 @@
         <v>158709.0082926402</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22228,7 +22132,7 @@
         <v>153698.3173926402</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22261,7 +22165,7 @@
         <v>151184.8600926402</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22294,7 +22198,7 @@
         <v>148172.3317926402</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22327,7 +22231,7 @@
         <v>148214.2371926402</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22360,7 +22264,7 @@
         <v>148327.2953926402</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22393,7 +22297,7 @@
         <v>146261.0298926402</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22426,7 +22330,7 @@
         <v>148479.4358926402</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22459,7 +22363,7 @@
         <v>148117.7186926402</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22492,7 +22396,7 @@
         <v>148201.6116926402</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22525,7 +22429,7 @@
         <v>148348.6872926402</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22558,7 +22462,7 @@
         <v>151423.9129926402</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22591,7 +22495,7 @@
         <v>152526.0612926402</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22624,7 +22528,7 @@
         <v>153634.4848926402</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22657,7 +22561,7 @@
         <v>153318.5699926402</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22690,7 +22594,7 @@
         <v>151789.5412926402</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22723,7 +22627,7 @@
         <v>151789.9079926402</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22756,7 +22660,7 @@
         <v>151913.3883926402</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22789,7 +22693,7 @@
         <v>151913.3883926402</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22822,7 +22726,7 @@
         <v>151913.3883926402</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22855,7 +22759,7 @@
         <v>151859.5677926402</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22888,7 +22792,7 @@
         <v>151706.4775926402</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22921,7 +22825,7 @@
         <v>152670.7917926402</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22954,7 +22858,7 @@
         <v>151875.2121926402</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22987,7 +22891,7 @@
         <v>151880.9650926402</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -23020,7 +22924,7 @@
         <v>150624.3364926402</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -23053,7 +22957,7 @@
         <v>142746.4547926402</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -23086,7 +22990,7 @@
         <v>137556.3747926402</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23119,7 +23023,7 @@
         <v>137968.5332195002</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23152,7 +23056,7 @@
         <v>137968.5332195002</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23185,7 +23089,7 @@
         <v>136882.7272195002</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23218,7 +23122,7 @@
         <v>139147.1495195002</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23251,7 +23155,7 @@
         <v>138485.6731195002</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23284,7 +23188,7 @@
         <v>135401.0809195002</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23317,7 +23221,7 @@
         <v>134005.0928195002</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23383,7 +23287,7 @@
         <v>134488.9804195002</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23416,7 +23320,7 @@
         <v>133563.6366195002</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -32029,7 +31933,7 @@
         <v>166407.4826456801</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -32062,7 +31966,7 @@
         <v>166327.5442456801</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -32095,7 +31999,7 @@
         <v>168089.1206456801</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32128,7 +32032,7 @@
         <v>171235.0087454001</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32161,7 +32065,7 @@
         <v>168795.9890454001</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32194,7 +32098,7 @@
         <v>168609.3112454001</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32227,7 +32131,7 @@
         <v>170395.1218454</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32260,7 +32164,7 @@
         <v>166197.7955454001</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32887,7 +32791,7 @@
         <v>175180.8769454</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32920,7 +32824,7 @@
         <v>173574.2781454</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32953,7 +32857,7 @@
         <v>173567.6781454</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32986,7 +32890,7 @@
         <v>171992.8184454</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -33019,7 +32923,7 @@
         <v>172142.8184454</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -33052,7 +32956,7 @@
         <v>172590.3632454</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33085,7 +32989,7 @@
         <v>172262.3632454</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33151,7 +33055,7 @@
         <v>175493.5296454</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
@@ -33481,7 +33385,7 @@
         <v>175913.91334746</v>
       </c>
       <c r="H946" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
@@ -33547,7 +33451,7 @@
         <v>176601.75934746</v>
       </c>
       <c r="H948" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="inlineStr"/>
@@ -33580,7 +33484,7 @@
         <v>176601.75934746</v>
       </c>
       <c r="H949" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="inlineStr"/>
@@ -33613,7 +33517,7 @@
         <v>176636.75934746</v>
       </c>
       <c r="H950" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="inlineStr"/>
@@ -33646,7 +33550,7 @@
         <v>177108.19804746</v>
       </c>
       <c r="H951" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
@@ -33679,7 +33583,7 @@
         <v>176690.58014746</v>
       </c>
       <c r="H952" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="inlineStr"/>
@@ -33712,7 +33616,7 @@
         <v>176531.85334746</v>
       </c>
       <c r="H953" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="inlineStr"/>
@@ -33745,7 +33649,7 @@
         <v>173166.33884746</v>
       </c>
       <c r="H954" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="inlineStr"/>
@@ -33778,7 +33682,7 @@
         <v>171074.2179124099</v>
       </c>
       <c r="H955" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
@@ -33811,7 +33715,7 @@
         <v>170362.1853124099</v>
       </c>
       <c r="H956" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="inlineStr"/>
@@ -33844,7 +33748,7 @@
         <v>170205.07531241</v>
       </c>
       <c r="H957" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="inlineStr"/>
@@ -33877,7 +33781,7 @@
         <v>156611.6597124099</v>
       </c>
       <c r="H958" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
@@ -33910,7 +33814,7 @@
         <v>153625.73661668</v>
       </c>
       <c r="H959" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
@@ -33943,7 +33847,7 @@
         <v>153926.73661668</v>
       </c>
       <c r="H960" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
@@ -33976,7 +33880,7 @@
         <v>153921.73661668</v>
       </c>
       <c r="H961" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
@@ -34009,7 +33913,7 @@
         <v>154223.37881668</v>
       </c>
       <c r="H962" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
@@ -34042,7 +33946,7 @@
         <v>153856.96161668</v>
       </c>
       <c r="H963" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
@@ -34075,7 +33979,7 @@
         <v>152946.46121668</v>
       </c>
       <c r="H964" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="inlineStr"/>
@@ -34108,7 +34012,7 @@
         <v>155036.62575222</v>
       </c>
       <c r="H965" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="inlineStr"/>
@@ -34141,7 +34045,7 @@
         <v>154310.82575222</v>
       </c>
       <c r="H966" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="inlineStr"/>
@@ -34174,7 +34078,7 @@
         <v>151482.98861541</v>
       </c>
       <c r="H967" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="inlineStr"/>
@@ -34207,7 +34111,7 @@
         <v>150796.25941541</v>
       </c>
       <c r="H968" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="inlineStr"/>
@@ -34240,7 +34144,7 @@
         <v>153190.69301541</v>
       </c>
       <c r="H969" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="inlineStr"/>
@@ -34273,7 +34177,7 @@
         <v>153841.34561541</v>
       </c>
       <c r="H970" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="inlineStr"/>
@@ -34306,7 +34210,7 @@
         <v>154811.50821541</v>
       </c>
       <c r="H971" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="inlineStr"/>
@@ -34339,7 +34243,7 @@
         <v>156744.06601541</v>
       </c>
       <c r="H972" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="inlineStr"/>
@@ -34372,7 +34276,7 @@
         <v>156744.06601541</v>
       </c>
       <c r="H973" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="inlineStr"/>
@@ -34405,7 +34309,7 @@
         <v>157851.45611541</v>
       </c>
       <c r="H974" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
       <c r="J974" t="inlineStr"/>
@@ -34438,7 +34342,7 @@
         <v>157892.56201541</v>
       </c>
       <c r="H975" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
       <c r="J975" t="inlineStr"/>
@@ -34471,7 +34375,7 @@
         <v>157907.76651541</v>
       </c>
       <c r="H976" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
       <c r="J976" t="inlineStr"/>
@@ -34504,7 +34408,7 @@
         <v>158714.96201541</v>
       </c>
       <c r="H977" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
       <c r="J977" t="inlineStr"/>
@@ -34537,7 +34441,7 @@
         <v>152093.98661541</v>
       </c>
       <c r="H978" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
       <c r="J978" t="inlineStr"/>
@@ -34570,7 +34474,7 @@
         <v>153294.79111541</v>
       </c>
       <c r="H979" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
       <c r="J979" t="inlineStr"/>
@@ -34603,7 +34507,7 @@
         <v>153860.38061541</v>
       </c>
       <c r="H980" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
       <c r="J980" t="inlineStr"/>
@@ -34636,7 +34540,7 @@
         <v>153860.38061541</v>
       </c>
       <c r="H981" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
       <c r="J981" t="inlineStr"/>
@@ -34669,7 +34573,7 @@
         <v>153360.38061541</v>
       </c>
       <c r="H982" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
       <c r="J982" t="inlineStr"/>
@@ -34702,7 +34606,7 @@
         <v>154089.03301541</v>
       </c>
       <c r="H983" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
       <c r="J983" t="inlineStr"/>
@@ -34735,7 +34639,7 @@
         <v>154089.03301541</v>
       </c>
       <c r="H984" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I984" t="inlineStr"/>
       <c r="J984" t="inlineStr"/>
@@ -34768,7 +34672,7 @@
         <v>154155.67531541</v>
       </c>
       <c r="H985" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I985" t="inlineStr"/>
       <c r="J985" t="inlineStr"/>
@@ -34801,7 +34705,7 @@
         <v>154362.67531541</v>
       </c>
       <c r="H986" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I986" t="inlineStr"/>
       <c r="J986" t="inlineStr"/>
@@ -34834,7 +34738,7 @@
         <v>150477.10631541</v>
       </c>
       <c r="H987" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I987" t="inlineStr"/>
       <c r="J987" t="inlineStr"/>
@@ -34867,7 +34771,7 @@
         <v>149915.11541541</v>
       </c>
       <c r="H988" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I988" t="inlineStr"/>
       <c r="J988" t="inlineStr"/>
@@ -34900,7 +34804,7 @@
         <v>149915.11541541</v>
       </c>
       <c r="H989" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I989" t="inlineStr"/>
       <c r="J989" t="inlineStr"/>
@@ -34933,7 +34837,7 @@
         <v>150162.64911541</v>
       </c>
       <c r="H990" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I990" t="inlineStr"/>
       <c r="J990" t="inlineStr"/>
@@ -34966,7 +34870,7 @@
         <v>150315.79771541</v>
       </c>
       <c r="H991" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I991" t="inlineStr"/>
       <c r="J991" t="inlineStr"/>
@@ -34999,7 +34903,7 @@
         <v>150340.79771541</v>
       </c>
       <c r="H992" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I992" t="inlineStr"/>
       <c r="J992" t="inlineStr"/>
@@ -35032,7 +34936,7 @@
         <v>150340.79771541</v>
       </c>
       <c r="H993" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I993" t="inlineStr"/>
       <c r="J993" t="inlineStr"/>
@@ -35065,7 +34969,7 @@
         <v>149248.41211541</v>
       </c>
       <c r="H994" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I994" t="inlineStr"/>
       <c r="J994" t="inlineStr"/>
@@ -35098,7 +35002,7 @@
         <v>149194.38209478</v>
       </c>
       <c r="H995" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I995" t="inlineStr"/>
       <c r="J995" t="inlineStr"/>
@@ -35131,7 +35035,7 @@
         <v>148974.52429478</v>
       </c>
       <c r="H996" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I996" t="inlineStr"/>
       <c r="J996" t="inlineStr"/>
@@ -35164,7 +35068,7 @@
         <v>144715.89519478</v>
       </c>
       <c r="H997" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I997" t="inlineStr"/>
       <c r="J997" t="inlineStr"/>
@@ -35197,7 +35101,7 @@
         <v>144943.49299478</v>
       </c>
       <c r="H998" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I998" t="inlineStr"/>
       <c r="J998" t="inlineStr"/>
@@ -35230,7 +35134,7 @@
         <v>144790.34439478</v>
       </c>
       <c r="H999" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I999" t="inlineStr"/>
       <c r="J999" t="inlineStr"/>
@@ -35263,7 +35167,7 @@
         <v>144002.19559478</v>
       </c>
       <c r="H1000" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1000" t="inlineStr"/>
       <c r="J1000" t="inlineStr"/>
@@ -35296,7 +35200,7 @@
         <v>147719.45129478</v>
       </c>
       <c r="H1001" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1001" t="inlineStr"/>
       <c r="J1001" t="inlineStr"/>
@@ -35329,7 +35233,7 @@
         <v>146864.15999478</v>
       </c>
       <c r="H1002" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1002" t="inlineStr"/>
       <c r="J1002" t="inlineStr"/>
@@ -35362,7 +35266,7 @@
         <v>147038.85529478</v>
       </c>
       <c r="H1003" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1003" t="inlineStr"/>
       <c r="J1003" t="inlineStr"/>
@@ -35659,7 +35563,7 @@
         <v>149107.71579478</v>
       </c>
       <c r="H1012" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
       <c r="J1012" t="inlineStr"/>
@@ -35725,7 +35629,7 @@
         <v>149123.79709478</v>
       </c>
       <c r="H1014" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
       <c r="J1014" t="inlineStr"/>
@@ -35791,7 +35695,7 @@
         <v>147038.32409478</v>
       </c>
       <c r="H1016" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
       <c r="J1016" t="inlineStr"/>
@@ -35824,7 +35728,7 @@
         <v>153323.86529478</v>
       </c>
       <c r="H1017" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
       <c r="J1017" t="inlineStr"/>
@@ -35857,7 +35761,7 @@
         <v>153623.86529478</v>
       </c>
       <c r="H1018" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
       <c r="J1018" t="inlineStr"/>
@@ -35890,7 +35794,7 @@
         <v>153456.49799478</v>
       </c>
       <c r="H1019" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
       <c r="J1019" t="inlineStr"/>
@@ -35989,7 +35893,7 @@
         <v>155938.44004507</v>
       </c>
       <c r="H1022" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
       <c r="J1022" t="inlineStr"/>
@@ -36022,7 +35926,7 @@
         <v>156307.65573078</v>
       </c>
       <c r="H1023" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
       <c r="J1023" t="inlineStr"/>
@@ -38332,7 +38236,7 @@
         <v>152742.3924917</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="inlineStr"/>
@@ -38398,7 +38302,7 @@
         <v>155792.7962917</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="inlineStr"/>
@@ -38431,7 +38335,7 @@
         <v>155791.7962917</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="inlineStr"/>
@@ -38464,7 +38368,7 @@
         <v>156711.9766917</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="inlineStr"/>
@@ -38497,7 +38401,7 @@
         <v>159029.2686917</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="inlineStr"/>
@@ -38530,7 +38434,7 @@
         <v>159029.2686917</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="inlineStr"/>
@@ -38761,7 +38665,7 @@
         <v>165123.3093645899</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="inlineStr"/>
@@ -38794,7 +38698,7 @@
         <v>166055.51916459</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="inlineStr"/>
@@ -38827,7 +38731,7 @@
         <v>165557.4318645899</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="inlineStr"/>
@@ -38860,7 +38764,7 @@
         <v>161248.17106459</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="inlineStr"/>
@@ -38893,7 +38797,7 @@
         <v>161448.77756459</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="inlineStr"/>
@@ -38926,7 +38830,7 @@
         <v>160364.06626459</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="inlineStr"/>
@@ -38959,7 +38863,7 @@
         <v>163469.65459074</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="inlineStr"/>
@@ -38992,7 +38896,7 @@
         <v>163338.33289074</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="inlineStr"/>
@@ -39025,7 +38929,7 @@
         <v>163338.33289074</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="inlineStr"/>
@@ -39058,7 +38962,7 @@
         <v>163338.33289074</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="inlineStr"/>
@@ -39091,7 +38995,7 @@
         <v>163104.7492907399</v>
       </c>
       <c r="H1116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="inlineStr"/>
@@ -39124,7 +39028,7 @@
         <v>163548.9497907399</v>
       </c>
       <c r="H1117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="inlineStr"/>
@@ -39157,7 +39061,7 @@
         <v>163552.03849329</v>
       </c>
       <c r="H1118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="inlineStr"/>
@@ -39190,7 +39094,7 @@
         <v>163523.30729329</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="inlineStr"/>
@@ -39223,7 +39127,7 @@
         <v>160336.64059329</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="inlineStr"/>
@@ -39256,7 +39160,7 @@
         <v>160336.64059329</v>
       </c>
       <c r="H1121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="inlineStr"/>
@@ -39289,7 +39193,7 @@
         <v>160429.38200366</v>
       </c>
       <c r="H1122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="inlineStr"/>
@@ -39322,7 +39226,7 @@
         <v>160059.63240366</v>
       </c>
       <c r="H1123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="inlineStr"/>
@@ -39355,7 +39259,7 @@
         <v>160059.63240366</v>
       </c>
       <c r="H1124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="inlineStr"/>
@@ -39388,7 +39292,7 @@
         <v>160059.63240366</v>
       </c>
       <c r="H1125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="inlineStr"/>
@@ -39421,7 +39325,7 @@
         <v>159443.60291403</v>
       </c>
       <c r="H1126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="inlineStr"/>
@@ -39454,7 +39358,7 @@
         <v>159427.20291403</v>
       </c>
       <c r="H1127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="inlineStr"/>
@@ -39487,7 +39391,7 @@
         <v>157400.49031403</v>
       </c>
       <c r="H1128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="inlineStr"/>
@@ -39520,7 +39424,7 @@
         <v>157400.22031403</v>
       </c>
       <c r="H1129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="inlineStr"/>
@@ -39553,7 +39457,7 @@
         <v>157216.83441403</v>
       </c>
       <c r="H1130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="inlineStr"/>
@@ -39586,7 +39490,7 @@
         <v>158628.90081403</v>
       </c>
       <c r="H1131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="inlineStr"/>
@@ -39619,7 +39523,7 @@
         <v>158655.50701403</v>
       </c>
       <c r="H1132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="inlineStr"/>
@@ -39652,7 +39556,7 @@
         <v>158538.85271403</v>
       </c>
       <c r="H1133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="inlineStr"/>
@@ -39685,7 +39589,7 @@
         <v>158538.85271403</v>
       </c>
       <c r="H1134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="inlineStr"/>
@@ -39718,7 +39622,7 @@
         <v>160512.09461403</v>
       </c>
       <c r="H1135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="inlineStr"/>
@@ -39751,7 +39655,7 @@
         <v>160656.36474161</v>
       </c>
       <c r="H1136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="inlineStr"/>
@@ -39784,7 +39688,7 @@
         <v>160648.79634161</v>
       </c>
       <c r="H1137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="inlineStr"/>
@@ -39817,7 +39721,7 @@
         <v>160762.5809231</v>
       </c>
       <c r="H1138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="inlineStr"/>
@@ -39850,7 +39754,7 @@
         <v>159302.3010231</v>
       </c>
       <c r="H1139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="inlineStr"/>
@@ -39883,7 +39787,7 @@
         <v>158131.9009231</v>
       </c>
       <c r="H1140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="inlineStr"/>
@@ -39916,7 +39820,7 @@
         <v>158131.9009231</v>
       </c>
       <c r="H1141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="inlineStr"/>
@@ -39949,7 +39853,7 @@
         <v>158770.6664231</v>
       </c>
       <c r="H1142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="inlineStr"/>
@@ -39982,7 +39886,7 @@
         <v>159717.8720231</v>
       </c>
       <c r="H1143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="inlineStr"/>
@@ -40015,7 +39919,7 @@
         <v>159515.8720231</v>
       </c>
       <c r="H1144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="inlineStr"/>
@@ -40048,7 +39952,7 @@
         <v>161520.91603198</v>
       </c>
       <c r="H1145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="inlineStr"/>
@@ -40081,7 +39985,7 @@
         <v>161483.7263319801</v>
       </c>
       <c r="H1146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="inlineStr"/>
@@ -40114,7 +40018,7 @@
         <v>161252.0390319801</v>
       </c>
       <c r="H1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="inlineStr"/>
@@ -40147,7 +40051,7 @@
         <v>161252.0390319801</v>
       </c>
       <c r="H1148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="inlineStr"/>
@@ -40180,7 +40084,7 @@
         <v>162181.3511319801</v>
       </c>
       <c r="H1149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="inlineStr"/>
@@ -40213,7 +40117,7 @@
         <v>160629.6139319801</v>
       </c>
       <c r="H1150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="inlineStr"/>
@@ -40246,7 +40150,7 @@
         <v>156373.3968319801</v>
       </c>
       <c r="H1151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="inlineStr"/>
@@ -40279,7 +40183,7 @@
         <v>155529.9525319801</v>
       </c>
       <c r="H1152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="inlineStr"/>
@@ -40312,7 +40216,7 @@
         <v>153915.9478319801</v>
       </c>
       <c r="H1153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="inlineStr"/>
@@ -40345,7 +40249,7 @@
         <v>149760.5951319801</v>
       </c>
       <c r="H1154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="inlineStr"/>
@@ -40378,7 +40282,7 @@
         <v>147939.3696319801</v>
       </c>
       <c r="H1155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="inlineStr"/>
@@ -40411,7 +40315,7 @@
         <v>147939.3696319801</v>
       </c>
       <c r="H1156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="inlineStr"/>
@@ -40444,7 +40348,7 @@
         <v>147939.3696319801</v>
       </c>
       <c r="H1157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="inlineStr"/>
@@ -40477,7 +40381,7 @@
         <v>148178.3632319801</v>
       </c>
       <c r="H1158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="inlineStr"/>
@@ -40510,7 +40414,7 @@
         <v>148592.6965319801</v>
       </c>
       <c r="H1159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="inlineStr"/>
@@ -40543,7 +40447,7 @@
         <v>144570.1864319801</v>
       </c>
       <c r="H1160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="inlineStr"/>
@@ -40576,7 +40480,7 @@
         <v>145929.3864319801</v>
       </c>
       <c r="H1161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="inlineStr"/>
@@ -40587,6 +40491,6 @@
       <c r="M1161" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest QTUM.xlsx
+++ b/BackTest/2020-01-16 BackTest QTUM.xlsx
@@ -484,17 +484,11 @@
         <v>-27279.88947487</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-32649.17527486999</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -566,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -599,17 +583,11 @@
         <v>-23915.60200000999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,17 +616,11 @@
         <v>-27546.59860000999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,17 +649,11 @@
         <v>-26546.59860000999</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1965</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -716,17 +682,11 @@
         <v>-26507.70960000999</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1967</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -763,7 +723,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -911,11 +871,9 @@
         <v>-25591.61470000999</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
@@ -2003,9 +1961,11 @@
         <v>-41020.50305951</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1990</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -2040,9 +2000,11 @@
         <v>-44811.02075950999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1986</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2077,9 +2039,11 @@
         <v>-44811.02075950999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1985</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -2231,11 +2195,9 @@
         <v>-47108.61771016999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2270,11 +2232,9 @@
         <v>-46755.12561016999</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1988</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2309,11 +2269,9 @@
         <v>-47091.18691016999</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2348,11 +2306,9 @@
         <v>-47557.87291016999</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2465,11 +2421,9 @@
         <v>-36938.04781017</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2504,11 +2458,9 @@
         <v>-36464.67131017</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1996</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2580,11 +2532,9 @@
         <v>-36637.84151017</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -16124,16 +16074,18 @@
         <v>153868.01437983</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L423" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L423" t="n">
+        <v>1</v>
+      </c>
       <c r="M423" t="inlineStr"/>
     </row>
     <row r="424">
@@ -16159,11 +16111,15 @@
         <v>186353.62347983</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16192,11 +16148,15 @@
         <v>176845.43122043</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16185,15 @@
         <v>169334.80632043</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16258,11 +16222,15 @@
         <v>178759.61749557</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16291,11 +16259,15 @@
         <v>190812.56192043</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16324,11 +16296,15 @@
         <v>207972.46202043</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16357,11 +16333,15 @@
         <v>173699.03972043</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16394,7 +16374,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16427,7 +16411,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16460,7 +16448,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16493,7 +16485,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16526,7 +16522,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16559,7 +16559,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +16596,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16625,7 +16633,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16658,7 +16670,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16691,7 +16707,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16720,14 +16740,16 @@
         <v>199348.55050239</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="inlineStr"/>
     </row>
     <row r="442">
@@ -16753,7 +16775,7 @@
         <v>199348.55050239</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16786,7 +16808,7 @@
         <v>189413.38994677</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16819,7 +16841,7 @@
         <v>198224.45314677</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16852,7 +16874,7 @@
         <v>207355.9750027001</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16885,7 +16907,7 @@
         <v>205923.3005027001</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16918,7 +16940,7 @@
         <v>198081.3725027001</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16951,7 +16973,7 @@
         <v>212510.1426027001</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16984,7 +17006,7 @@
         <v>207752.9359163601</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17017,7 +17039,7 @@
         <v>201230.79591636</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17512,7 +17534,7 @@
         <v>112111.1102820301</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17545,7 +17567,7 @@
         <v>119689.7182820301</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17578,7 +17600,7 @@
         <v>115165.3723820301</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17611,7 +17633,7 @@
         <v>117352.6236710901</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -19195,7 +19217,7 @@
         <v>184965.6360229201</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19228,7 +19250,7 @@
         <v>184965.6360229201</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19261,7 +19283,7 @@
         <v>176678.6981229201</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19294,7 +19316,7 @@
         <v>176668.9285603401</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19327,7 +19349,7 @@
         <v>176613.5285603401</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19360,7 +19382,7 @@
         <v>176559.2448603401</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19393,7 +19415,7 @@
         <v>177420.0005603402</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -31933,7 +31955,7 @@
         <v>166407.4826456801</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
@@ -31966,7 +31988,7 @@
         <v>166327.5442456801</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
@@ -31999,7 +32021,7 @@
         <v>168089.1206456801</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
@@ -32032,7 +32054,7 @@
         <v>171235.0087454001</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
@@ -32065,7 +32087,7 @@
         <v>168795.9890454001</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
@@ -32098,7 +32120,7 @@
         <v>168609.3112454001</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
@@ -32131,7 +32153,7 @@
         <v>170395.1218454</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
@@ -32164,7 +32186,7 @@
         <v>166197.7955454001</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -32791,7 +32813,7 @@
         <v>175180.8769454</v>
       </c>
       <c r="H928" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -32824,7 +32846,7 @@
         <v>173574.2781454</v>
       </c>
       <c r="H929" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -32857,7 +32879,7 @@
         <v>173567.6781454</v>
       </c>
       <c r="H930" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -32890,7 +32912,7 @@
         <v>171992.8184454</v>
       </c>
       <c r="H931" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -32923,7 +32945,7 @@
         <v>172142.8184454</v>
       </c>
       <c r="H932" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -32956,7 +32978,7 @@
         <v>172590.3632454</v>
       </c>
       <c r="H933" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -32989,7 +33011,7 @@
         <v>172262.3632454</v>
       </c>
       <c r="H934" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
@@ -33055,7 +33077,7 @@
         <v>175493.5296454</v>
       </c>
       <c r="H936" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
